--- a/data/experts/qualitative_analysis_review.xlsx
+++ b/data/experts/qualitative_analysis_review.xlsx
@@ -8,30 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fronchettl\Documents\GitHub\TOCHI-2023\data\experts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB311ED-DFEE-433B-9636-297036AC8167}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B6ED6E-0DD1-40F3-9938-A1EA6F4AB652}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17243" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17243" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="7" r:id="rId1"/>
-    <sheet name="All Codes" sheetId="9" r:id="rId2"/>
-    <sheet name="Phase 1 - Codes" sheetId="1" r:id="rId3"/>
-    <sheet name="Phase 2 - Codes" sheetId="3" r:id="rId4"/>
-    <sheet name="Phase 3 - Codes" sheetId="5" r:id="rId5"/>
-    <sheet name="Phase 3 - Analysis" sheetId="8" r:id="rId6"/>
-    <sheet name="Phase 1 - Agreement" sheetId="2" r:id="rId7"/>
-    <sheet name="Phase 2 - Agreement" sheetId="4" r:id="rId8"/>
+    <sheet name="Final Codes (Ocurrences-Expert)" sheetId="11" r:id="rId1"/>
+    <sheet name="Final Codes (Ocurrences-Phrase)" sheetId="10" r:id="rId2"/>
+    <sheet name="Final Codes (Prior Review)" sheetId="9" r:id="rId3"/>
+    <sheet name="Phase 1 - Codes" sheetId="1" r:id="rId4"/>
+    <sheet name="Phase 2 - Codes" sheetId="3" r:id="rId5"/>
+    <sheet name="Phase 3 - Codes" sheetId="5" r:id="rId6"/>
+    <sheet name="Phase 3 - Analysis" sheetId="8" r:id="rId7"/>
+    <sheet name="Phase 1 - Agreement" sheetId="2" r:id="rId8"/>
+    <sheet name="Phase 2 - Agreement" sheetId="4" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Phase 2 - Codes'!$A$1:$A$1004</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Phase 3 - Codes'!$B$1:$B$1019</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Phase 2 - Codes'!$A$1:$A$1004</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Phase 3 - Codes'!$B$1:$B$1019</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="316">
   <si>
     <t>Phase 1 (Martin, Jason, Leonard)</t>
   </si>
@@ -722,9 +723,6 @@
     <t>Impression: The interface is precise;</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
     <t>Count</t>
   </si>
   <si>
@@ -768,6 +766,228 @@
   </si>
   <si>
     <t>Final Set of Codes</t>
+  </si>
+  <si>
+    <t>Recommendation: Homing Button;</t>
+  </si>
+  <si>
+    <t>Have force feedback information to know the gripper is exerting enough force on the box;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feedback to know the block is sufficiently grabbed; </t>
+  </si>
+  <si>
+    <t>Suggestion: Add a snap position and coordinate system;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The interface is too slow and too hard to use for standard manufacturing. </t>
+  </si>
+  <si>
+    <t>Suggestion: Redesign gripper's interface.</t>
+  </si>
+  <si>
+    <t>Suggestion: Redesign gripper's interface and behaviour.</t>
+  </si>
+  <si>
+    <t>Impression: The gripper interface and behaviour are problematic;</t>
+  </si>
+  <si>
+    <t>Manipulating in a controlled environment; Creating a hologram version of the robot to manipulate instead of manipulating a bounding box around the robot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grabing the bounding box can be tricky; </t>
+  </si>
+  <si>
+    <t>Suggestion: Provide an alternate interface / controller.</t>
+  </si>
+  <si>
+    <t>Merged with: The bounding box is too large</t>
+  </si>
+  <si>
+    <t>Merged with: There is a delay between the movement in mixed reality and the robot.</t>
+  </si>
+  <si>
+    <t>Pinching in mixed reality is challenging</t>
+  </si>
+  <si>
+    <t>Pinpointing in mixed reality is challenging</t>
+  </si>
+  <si>
+    <t>The interface is easy to use and understand</t>
+  </si>
+  <si>
+    <t>* Renamed codes for better understanding</t>
+  </si>
+  <si>
+    <t>* Merged codes with strong similarity</t>
+  </si>
+  <si>
+    <t>It is hard to use mixed reality without proper training</t>
+  </si>
+  <si>
+    <t>The mixed reality interface and the robot may be misaligned</t>
+  </si>
+  <si>
+    <t>The field of the headset view is small</t>
+  </si>
+  <si>
+    <t>The gripper interface may not work as expected</t>
+  </si>
+  <si>
+    <t>The mixed reality application has no sense of its physical workspace</t>
+  </si>
+  <si>
+    <t>The bounding box interface may not work as expected</t>
+  </si>
+  <si>
+    <t>Impressions</t>
+  </si>
+  <si>
+    <t>A marker could be used to keep the mixed reality interface and robot aligned</t>
+  </si>
+  <si>
+    <t>Audios cues could be included to improve user experience</t>
+  </si>
+  <si>
+    <t>Visual markers could be included to improve user experience</t>
+  </si>
+  <si>
+    <t>A "undo button" could be included to the interface</t>
+  </si>
+  <si>
+    <t>A "home button" could be included to the interface</t>
+  </si>
+  <si>
+    <t>Merged with: The position of the grippers could be moved to improve reachability.</t>
+  </si>
+  <si>
+    <t>Some bounding box controls should be moved to reachable positions</t>
+  </si>
+  <si>
+    <t>A training about mixed reality should be given to users trying the interface</t>
+  </si>
+  <si>
+    <t>Hints in mixed reality could be given to users having trouble to manipulate the interface</t>
+  </si>
+  <si>
+    <t>Other types of controls could be included within the interface (e.g. joystick)</t>
+  </si>
+  <si>
+    <t>The size of the bounding box controls should be increased</t>
+  </si>
+  <si>
+    <t>The grippers' interface should be redesigned</t>
+  </si>
+  <si>
+    <t>Merged with: Provide feedback on how much force the gripper is exerting and/or how far the gripper can grip.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merged with: Could be used for moving large boxes in a warehouse; </t>
+  </si>
+  <si>
+    <t>The interface could be used to manipulate distant objects</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The interface could be used to manipulate heavy objects</t>
+  </si>
+  <si>
+    <t>With better precision, the interface could be used to manipulate sensitive objects</t>
+  </si>
+  <si>
+    <t>The interfaced could be used in welding</t>
+  </si>
+  <si>
+    <t>The interfaced could be used in assistive health care</t>
+  </si>
+  <si>
+    <t>Suggestions</t>
+  </si>
+  <si>
+    <t>Applications</t>
+  </si>
+  <si>
+    <t>Reviewer Actions:</t>
+  </si>
+  <si>
+    <t>The synchronization between the interface and the robot is precise</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>Who?</t>
+  </si>
+  <si>
+    <t>Jason, Leonard</t>
+  </si>
+  <si>
+    <t>Leonard</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>Kostadin, Spinola</t>
+  </si>
+  <si>
+    <t>Spinola</t>
+  </si>
+  <si>
+    <t>Kostadin, Julianna</t>
+  </si>
+  <si>
+    <t>Praveen</t>
+  </si>
+  <si>
+    <t>Patrick, Kostadin, Praveen</t>
+  </si>
+  <si>
+    <t>Julianna, Gabriel</t>
+  </si>
+  <si>
+    <t>Spinola, Praveen, Joseph</t>
+  </si>
+  <si>
+    <t>Kostadin, Anna</t>
+  </si>
+  <si>
+    <t>Joseph, Anna</t>
+  </si>
+  <si>
+    <t>Spinola, Praveen, Anna</t>
+  </si>
+  <si>
+    <t>Jason, Patrick, Anna</t>
+  </si>
+  <si>
+    <t>Jason, Leonard, Patrick, Julianna, Joseph, Anna</t>
+  </si>
+  <si>
+    <t>Jason, Anna</t>
+  </si>
+  <si>
+    <t>Jason, Leonard, Patrick, Gabriel, Anna</t>
+  </si>
+  <si>
+    <t>Logan</t>
+  </si>
+  <si>
+    <t>Jason, Leonard, Patrick, Praveen, Gabriel, Logan</t>
+  </si>
+  <si>
+    <t>Jason, Leonard, Kostadin, Spinola, Julianna, Gabriel, Anna, Logan</t>
+  </si>
+  <si>
+    <t>Jason, Logan</t>
+  </si>
+  <si>
+    <t>Patrick, Logan</t>
+  </si>
+  <si>
+    <t>Leonard, Patrick, Kostadin, Julianna, Logan</t>
+  </si>
+  <si>
+    <t>Markers could be included to improve visual feedback</t>
   </si>
 </sst>
 </file>
@@ -842,7 +1062,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1005,6 +1225,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFD5A6BD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1018,7 +1256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1142,36 +1380,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1200,6 +1408,22 @@
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1414,1090 +1638,2113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F376EF-FD12-47C2-87DA-5DEA7D8996AE}">
-  <dimension ref="A2:B36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC7C0BA-67E4-40BC-A604-8B570ECA2767}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="95.53125" customWidth="1"/>
-    <col min="2" max="2" width="24.86328125" customWidth="1"/>
+    <col min="1" max="1" width="32.3984375" customWidth="1"/>
+    <col min="2" max="2" width="87.73046875" customWidth="1"/>
+    <col min="3" max="3" width="25.86328125" customWidth="1"/>
+    <col min="4" max="4" width="61.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A2" s="69" t="s">
+    <row r="1" spans="1:5" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="B1" s="59" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="B2" s="69" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="59" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="60" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="60" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="60" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="59" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="61" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="61" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="60" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="61" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="60" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="60" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="62" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="63" t="s">
+      <c r="D1" s="81"/>
+      <c r="E1" s="82" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="78" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" s="75">
+        <v>3</v>
+      </c>
+      <c r="E2" s="75" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="78"/>
+      <c r="B3" s="66" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" s="75">
+        <v>7</v>
+      </c>
+      <c r="E3" s="75" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="78"/>
+      <c r="B4" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" s="75">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="63" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="62" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="62" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="62" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="62" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="62" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="62" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="64" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="63" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="64" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="63" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="65" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="63" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" s="66" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" s="67" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="67" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="66" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="66" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="68" t="s">
-        <v>206</v>
+      <c r="D4" s="66" t="s">
+        <v>253</v>
+      </c>
+      <c r="E4" s="75" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="78"/>
+      <c r="B5" s="65" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" s="75">
+        <v>5</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>254</v>
+      </c>
+      <c r="E5" s="75" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="78"/>
+      <c r="B6" s="67" t="s">
+        <v>260</v>
+      </c>
+      <c r="C6" s="75">
+        <v>2</v>
+      </c>
+      <c r="E6" s="75" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="78"/>
+      <c r="B7" s="66" t="s">
+        <v>264</v>
+      </c>
+      <c r="C7" s="75">
+        <v>2</v>
+      </c>
+      <c r="E7" s="75" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="78"/>
+      <c r="B8" s="67" t="s">
+        <v>256</v>
+      </c>
+      <c r="C8" s="75">
+        <v>2</v>
+      </c>
+      <c r="E8" s="75" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="78"/>
+      <c r="B9" s="66" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" s="75">
+        <v>1</v>
+      </c>
+      <c r="E9" s="75" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="78"/>
+      <c r="B10" s="66" t="s">
+        <v>263</v>
+      </c>
+      <c r="C10" s="75">
+        <v>2</v>
+      </c>
+      <c r="E10" s="75" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="79" t="s">
+        <v>286</v>
+      </c>
+      <c r="B11" s="68" t="s">
+        <v>267</v>
+      </c>
+      <c r="C11" s="75">
+        <v>1</v>
+      </c>
+      <c r="E11" s="75" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="79"/>
+      <c r="B12" s="69" t="s">
+        <v>273</v>
+      </c>
+      <c r="C12" s="75">
+        <v>6</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="E12" s="75" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="79"/>
+      <c r="B13" s="68" t="s">
+        <v>271</v>
+      </c>
+      <c r="C13" s="75">
+        <v>1</v>
+      </c>
+      <c r="E13" s="75" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="79"/>
+      <c r="B14" s="68" t="s">
+        <v>268</v>
+      </c>
+      <c r="C14" s="75">
+        <v>1</v>
+      </c>
+      <c r="E14" s="75" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="79"/>
+      <c r="B15" s="68" t="s">
+        <v>315</v>
+      </c>
+      <c r="C15" s="75">
+        <v>3</v>
+      </c>
+      <c r="E15" s="75" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="79"/>
+      <c r="B16" s="68" t="s">
+        <v>270</v>
+      </c>
+      <c r="C16" s="75">
+        <v>1</v>
+      </c>
+      <c r="E16" s="75" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="79"/>
+      <c r="B17" s="68" t="s">
+        <v>276</v>
+      </c>
+      <c r="C17" s="75">
+        <v>2</v>
+      </c>
+      <c r="E17" s="75" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="79"/>
+      <c r="B18" s="70" t="s">
+        <v>274</v>
+      </c>
+      <c r="C18" s="75">
+        <v>3</v>
+      </c>
+      <c r="E18" s="75" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="79"/>
+      <c r="B19" s="69" t="s">
+        <v>275</v>
+      </c>
+      <c r="C19" s="75">
+        <v>1</v>
+      </c>
+      <c r="E19" s="75" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="79"/>
+      <c r="B20" s="69" t="s">
+        <v>277</v>
+      </c>
+      <c r="C20" s="75">
+        <v>2</v>
+      </c>
+      <c r="E20" s="75" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="79"/>
+      <c r="B21" s="69" t="s">
+        <v>278</v>
+      </c>
+      <c r="C21" s="75">
+        <v>2</v>
+      </c>
+      <c r="D21" s="71" t="s">
+        <v>279</v>
+      </c>
+      <c r="E21" s="75" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="80" t="s">
+        <v>287</v>
+      </c>
+      <c r="B22" s="72" t="s">
+        <v>281</v>
+      </c>
+      <c r="C22" s="75">
+        <v>5</v>
+      </c>
+      <c r="E22" s="75" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="80"/>
+      <c r="B23" s="73" t="s">
+        <v>282</v>
+      </c>
+      <c r="C23" s="75">
+        <v>3</v>
+      </c>
+      <c r="D23" s="74" t="s">
+        <v>280</v>
+      </c>
+      <c r="E23" s="75" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="80"/>
+      <c r="B24" s="73" t="s">
+        <v>283</v>
+      </c>
+      <c r="C24" s="75">
+        <v>2</v>
+      </c>
+      <c r="E24" s="75" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="80"/>
+      <c r="B25" s="72" t="s">
+        <v>284</v>
+      </c>
+      <c r="C25" s="75">
+        <v>1</v>
+      </c>
+      <c r="E25" s="75" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="80"/>
+      <c r="B26" s="72" t="s">
+        <v>285</v>
+      </c>
+      <c r="C26" s="75">
+        <v>2</v>
+      </c>
+      <c r="E26" s="75" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C27" s="75"/>
+    </row>
+    <row r="29" spans="1:5" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="B29" s="77" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="B30" s="77" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="B31" s="77" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A21"/>
+    <mergeCell ref="A22:A26"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9775EC-5A35-41D1-AFC6-5AC2F1CE73F7}">
-  <dimension ref="A1:E145"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D321C60D-C81C-448F-920D-2E41808CD651}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="72.53125" style="71" customWidth="1"/>
-    <col min="2" max="2" width="80" customWidth="1"/>
-    <col min="5" max="5" width="57.59765625" customWidth="1"/>
+    <col min="1" max="1" width="32.3984375" customWidth="1"/>
+    <col min="2" max="2" width="87.73046875" customWidth="1"/>
+    <col min="3" max="3" width="25.86328125" customWidth="1"/>
+    <col min="4" max="4" width="61.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A1" s="74" t="s">
-        <v>237</v>
-      </c>
-      <c r="E1" s="69" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="B1" s="59" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="78" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" s="75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="78"/>
+      <c r="B3" s="66" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" s="75">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="78"/>
+      <c r="B4" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" s="75">
+        <f>25 + 7</f>
+        <v>32</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="78"/>
+      <c r="B5" s="65" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" s="75">
+        <f>7 + 3</f>
+        <v>10</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="78"/>
+      <c r="B6" s="67" t="s">
+        <v>260</v>
+      </c>
+      <c r="C6" s="75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="78"/>
+      <c r="B7" s="66" t="s">
+        <v>264</v>
+      </c>
+      <c r="C7" s="75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="78"/>
+      <c r="B8" s="67" t="s">
+        <v>256</v>
+      </c>
+      <c r="C8" s="75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="78"/>
+      <c r="B9" s="66" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" s="75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="78"/>
+      <c r="B10" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="C10" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="78"/>
+      <c r="B11" s="66" t="s">
+        <v>263</v>
+      </c>
+      <c r="C11" s="75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="79" t="s">
+        <v>286</v>
+      </c>
+      <c r="B12" s="68" t="s">
+        <v>267</v>
+      </c>
+      <c r="C12" s="75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="79"/>
+      <c r="B13" s="69" t="s">
+        <v>273</v>
+      </c>
+      <c r="C13" s="75">
+        <f xml:space="preserve"> 3 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="D13" s="68" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="79"/>
+      <c r="B14" s="68" t="s">
+        <v>271</v>
+      </c>
+      <c r="C14" s="75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="79"/>
+      <c r="B15" s="68" t="s">
+        <v>268</v>
+      </c>
+      <c r="C15" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="79"/>
+      <c r="B16" s="68" t="s">
+        <v>269</v>
+      </c>
+      <c r="C16" s="75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="79"/>
+      <c r="B17" s="68" t="s">
+        <v>270</v>
+      </c>
+      <c r="C17" s="75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="79"/>
+      <c r="B18" s="68" t="s">
+        <v>276</v>
+      </c>
+      <c r="C18" s="75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="79"/>
+      <c r="B19" s="70" t="s">
+        <v>274</v>
+      </c>
+      <c r="C19" s="75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="79"/>
+      <c r="B20" s="69" t="s">
+        <v>275</v>
+      </c>
+      <c r="C20" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="79"/>
+      <c r="B21" s="69" t="s">
+        <v>277</v>
+      </c>
+      <c r="C21" s="75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="79"/>
+      <c r="B22" s="69" t="s">
+        <v>278</v>
+      </c>
+      <c r="C22" s="75">
+        <f>1 + 2</f>
+        <v>3</v>
+      </c>
+      <c r="D22" s="71" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="80" t="s">
+        <v>287</v>
+      </c>
+      <c r="B23" s="72" t="s">
+        <v>281</v>
+      </c>
+      <c r="C23" s="75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="80"/>
+      <c r="B24" s="73" t="s">
+        <v>282</v>
+      </c>
+      <c r="C24" s="75">
+        <f xml:space="preserve"> 1 + 3</f>
+        <v>4</v>
+      </c>
+      <c r="D24" s="74" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="80"/>
+      <c r="B25" s="73" t="s">
+        <v>283</v>
+      </c>
+      <c r="C25" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="80"/>
+      <c r="B26" s="72" t="s">
+        <v>284</v>
+      </c>
+      <c r="C26" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="80"/>
+      <c r="B27" s="72" t="s">
+        <v>285</v>
+      </c>
+      <c r="C27" s="75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C28" s="75"/>
+    </row>
+    <row r="30" spans="1:4" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="B30" s="77" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="B31" s="77" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="B32" s="77" t="s">
+        <v>259</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A12:A22"/>
+    <mergeCell ref="A23:A27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9775EC-5A35-41D1-AFC6-5AC2F1CE73F7}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:F149"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="72.53125" style="61" customWidth="1"/>
+    <col min="2" max="2" width="80" customWidth="1"/>
+    <col min="5" max="5" width="87.73046875" customWidth="1"/>
+    <col min="6" max="6" width="25.86328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A1" s="64" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1" s="59" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1" s="59" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="65" t="s">
         <v>216</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="65" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" s="75">
+        <f>COUNTIF(B$2:B$149,E2)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="65" t="s">
         <v>216</v>
       </c>
-      <c r="E3" s="76" t="s">
+      <c r="E3" s="66" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3" s="75">
+        <f t="shared" ref="F3:F38" si="0">COUNTIF(B$2:B$149,E3)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="65" t="s">
         <v>216</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="66" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4" s="75">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="75" t="s">
-        <v>216</v>
-      </c>
-      <c r="E5" s="76" t="s">
+      <c r="B5" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="66" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5" s="75">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="75" t="s">
-        <v>216</v>
-      </c>
-      <c r="E6" s="75" t="s">
+      <c r="B6" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="65" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6" s="75">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="77" t="s">
+      <c r="B7" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="67" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7" s="75">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="E8" s="77"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="E9" s="77" t="s">
+      <c r="B9" s="66" t="s">
+        <v>217</v>
+      </c>
+      <c r="E9" s="67" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9" s="75">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="66" t="s">
         <v>217</v>
       </c>
-      <c r="E10" s="76" t="s">
+      <c r="E10" s="66" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10" s="75">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="77" t="s">
+      <c r="B11" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="67" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11" s="75">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="66" t="s">
         <v>217</v>
       </c>
-      <c r="E12" s="76" t="s">
+      <c r="E12" s="66" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12" s="75">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="66" t="s">
         <v>217</v>
       </c>
-      <c r="E13" s="76" t="s">
+      <c r="E13" s="66" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="F13" s="75">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B14" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="66" t="s">
+        <v>249</v>
+      </c>
+      <c r="F14" s="75">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="78" t="s">
+      <c r="B15" s="68" t="s">
+        <v>252</v>
+      </c>
+      <c r="E15" s="68" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F15" s="75">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="66" t="s">
         <v>217</v>
       </c>
-      <c r="E16" s="79" t="s">
+      <c r="D16" s="75"/>
+      <c r="E16" s="69" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="70" t="s">
+      <c r="F16" s="75">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="79" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="65" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="78" t="s">
+      <c r="B18" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="68" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="78" t="s">
+      <c r="F18" s="75">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="B19" s="71" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B20" s="71" t="s">
+        <v>205</v>
+      </c>
+      <c r="E20" s="68" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="11" t="s">
+      <c r="F20" s="75">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="78" t="s">
+      <c r="B21" s="69" t="s">
+        <v>247</v>
+      </c>
+      <c r="E21" s="68" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="78" t="s">
+      <c r="F21" s="75">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="E22" s="68" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="22" t="s">
+      <c r="F22" s="75">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="78" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A23" s="21" t="s">
+      <c r="B23" s="72" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="68" t="s">
+        <v>252</v>
+      </c>
+      <c r="F24" s="75">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="38.25" x14ac:dyDescent="0.35">
+      <c r="A25" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="78" t="s">
+      <c r="B25" s="66" t="s">
+        <v>217</v>
+      </c>
+      <c r="E25" s="68" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="40" t="s">
+      <c r="F25" s="75">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="80" t="s">
+      <c r="B26" s="68" t="s">
+        <v>252</v>
+      </c>
+      <c r="E26" s="70" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="32" t="s">
+      <c r="F26" s="75">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="76" t="s">
+      <c r="B27" s="66" t="s">
         <v>217</v>
       </c>
-      <c r="E25" s="79" t="s">
+      <c r="E27" s="69" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="16" t="s">
+      <c r="F27" s="75">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="80" t="s">
+      <c r="B28" s="68" t="s">
+        <v>252</v>
+      </c>
+      <c r="E28" s="70" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="11" t="s">
+      <c r="F28" s="75">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="79" t="s">
+      <c r="B29" s="68" t="s">
+        <v>252</v>
+      </c>
+      <c r="E29" s="69" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="38" t="s">
+      <c r="F29" s="75">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="81" t="s">
+      <c r="E30" s="71" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="32" t="s">
+      <c r="F30" s="75">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="76" t="s">
+      <c r="B31" s="66" t="s">
         <v>217</v>
       </c>
-      <c r="E29" s="79" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="32" t="s">
+      <c r="E31" s="69" t="s">
+        <v>245</v>
+      </c>
+      <c r="F31" s="75">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="76" t="s">
+      <c r="B32" s="66" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="32" t="s">
+      <c r="E32" s="69" t="s">
+        <v>247</v>
+      </c>
+      <c r="F32" s="75">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="76" t="s">
+      <c r="B33" s="66" t="s">
         <v>217</v>
       </c>
-      <c r="E31" s="82" t="s">
+      <c r="E33" s="72" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="22" t="s">
+      <c r="F33" s="75">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="83" t="s">
+      <c r="B34" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="73" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="40" t="s">
+      <c r="F34" s="75">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="83" t="s">
+      <c r="B35" s="72" t="s">
+        <v>204</v>
+      </c>
+      <c r="E35" s="73" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="18" t="s">
+      <c r="F35" s="75">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="82" t="s">
+      <c r="B36" s="66" t="s">
+        <v>219</v>
+      </c>
+      <c r="E36" s="72" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="11" t="s">
+      <c r="F36" s="75">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="82" t="s">
+      <c r="B37" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="72" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="11" t="s">
+      <c r="F37" s="75">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="84" t="s">
+      <c r="B38" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="74" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="11" t="s">
+      <c r="F38" s="75">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="76" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="B40" s="68" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="11" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="18" t="s">
+      <c r="B41" s="68" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="18" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="40" t="s">
+      <c r="B42" s="66" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="40" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="40" t="s">
+      <c r="B43" s="66" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="40" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="11" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="32" t="s">
+      <c r="B45" s="68" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="76" t="s">
+      <c r="B46" s="66" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="38" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="38" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="70" t="s">
+      <c r="B47" s="67" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="60" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="70" t="s">
+      <c r="B48" s="65" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="60" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="11" t="s">
+      <c r="B49" s="65" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="11" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="11" t="s">
+      <c r="B50" s="68" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="11" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="70" t="s">
+      <c r="B51" s="68" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="60" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="32" t="s">
+      <c r="B52" s="65" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="76" t="s">
+      <c r="B53" s="66" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="18" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="67" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="66" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="66" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="18" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="21" t="s">
+      <c r="B57" s="66" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="21" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="16" t="s">
+      <c r="B58" s="66" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="16" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="21" t="s">
-        <v>66</v>
+      <c r="B59" s="68" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
+      </c>
+      <c r="B60" s="68" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="18" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="B61" s="66" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62" s="76" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A63" s="22" t="s">
-        <v>69</v>
+      <c r="A62" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" s="66" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="16" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="66" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" s="66" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="B66" s="66" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="B67" s="72" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="18" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A65" s="74" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" s="32" t="s">
+      <c r="B68" s="66" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A69" s="64" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="32" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" s="39" t="s">
+      <c r="B70" s="67" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="39" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68" s="32" t="s">
+      <c r="B71" s="66" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="32" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" s="39" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" s="39" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" s="39" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72" s="33" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B72" s="70" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="39" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B73" s="66" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="66" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" s="73" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="66" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="39" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75" s="35" t="s">
+      <c r="B78" s="69" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="35" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" s="35" t="s">
+      <c r="B79" s="66" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="35" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A77" s="33" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="33" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78" s="35" t="s">
+      <c r="B81" s="67" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="35" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79" s="32" t="s">
+      <c r="B82" s="65" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="32" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80" s="39" t="s">
+      <c r="B83" s="67" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="39" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="36" t="s">
+      <c r="B84" s="66" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="36" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="37" t="s">
+      <c r="B85" s="67" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="37" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="37" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="37" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" s="39" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A86" s="35" t="s">
-        <v>157</v>
+      <c r="B86" s="66" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="B87" s="66" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="B88" s="66" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="B89" s="66" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A90" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="B90" s="73" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="37" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" s="36" t="s">
+      <c r="B91" s="66" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="36" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="32" t="s">
+      <c r="B92" s="67" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="32" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" s="35" t="s">
+      <c r="B93" s="67" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="35" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A91" s="74" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" s="71" t="s">
+      <c r="B94" s="65" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A95" s="64" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="61" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" s="71" t="s">
+      <c r="B96" s="65" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="61" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="71" t="s">
+      <c r="B97" s="66" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="61" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" s="71" t="s">
+      <c r="B98" s="66" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B95" s="76" t="s">
+      <c r="B99" s="66" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" s="71" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="61" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" s="71" t="s">
+      <c r="B100" s="66" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="61" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A98" s="71" t="s">
+      <c r="B101" s="66" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="61" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A99" s="71" t="s">
+      <c r="B102" s="69" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="61" t="s">
+        <v>228</v>
+      </c>
+      <c r="B103" s="66" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="61" t="s">
+        <v>208</v>
+      </c>
+      <c r="B104" s="66" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="61" t="s">
+        <v>208</v>
+      </c>
+      <c r="B105" s="66" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="B106" s="74" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="61" t="s">
+        <v>208</v>
+      </c>
+      <c r="B107" s="66" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="B108" s="74" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="B109" s="70" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="61" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="B111" s="69" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="B112" s="70" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="61" t="s">
+        <v>215</v>
+      </c>
+      <c r="B113" s="69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B114" s="66" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="61" t="s">
+        <v>211</v>
+      </c>
+      <c r="B115" s="69" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="B117" s="72" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="B118" s="67" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" s="66" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" s="61" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A100" s="71" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101" s="71" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A102" s="71" t="s">
+      <c r="B120" s="74" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A103" s="71" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A104" s="71" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A105" s="71" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A106" s="71" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A107" s="71" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A108" s="71" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A109" s="71" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A110" s="71" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121" s="66" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B122" s="66" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B123" s="66" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" s="66" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="B125" s="66" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" s="61" t="s">
+        <v>230</v>
+      </c>
+      <c r="B126" s="67" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" s="61" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A111" s="71" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A112" s="73" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113" s="71" t="s">
+      <c r="B127" s="66" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="B128" s="70" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="B129" s="70" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B130" s="68" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B131" s="66" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="B132" s="70" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="B133" s="68" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B134" s="66" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="B135" s="72" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" s="61" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114" s="71" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115" s="71" t="s">
+      <c r="B136" s="72" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B115" s="76" t="s">
+      <c r="B137" s="66" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116" s="71" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117" s="71" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="B138" s="67" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" s="61" t="s">
+        <v>231</v>
+      </c>
+      <c r="B139" s="69" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" s="61" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" s="61" t="s">
+        <v>203</v>
+      </c>
+      <c r="B141" s="72" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" s="61" t="s">
+        <v>209</v>
+      </c>
+      <c r="B142" s="66" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" s="63" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A118" s="71" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A119" s="71" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A120" s="71" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A121" s="71" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A122" s="71" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A123" s="71" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A124" s="71" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A125" s="71" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A126" s="71" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A127" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="B127" s="76" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A128" s="71" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A129" s="73" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A130" s="71" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A131" s="71" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A132" s="71" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A133" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="B133" s="76" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A134" s="71" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A135" s="71" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A136" s="71" t="s">
+      <c r="B143" s="66" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="B144" s="66" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" s="63" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A137" s="71" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A138" s="71" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A139" s="73" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A140" s="73" t="s">
+      <c r="B145" s="69" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" s="61" t="s">
+        <v>207</v>
+      </c>
+      <c r="B146" s="69" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" s="61" t="s">
+        <v>207</v>
+      </c>
+      <c r="B147" s="69" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A148" s="63" t="s">
+        <v>205</v>
+      </c>
+      <c r="B148" s="69" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" s="61" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A141" s="73" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A142" s="71" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A143" s="71" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A144" s="73" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A145" s="71" t="s">
-        <v>236</v>
+      <c r="B149" s="69" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -2506,7 +3753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
@@ -2515,7 +3762,7 @@
   <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A63"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2579,158 +3826,164 @@
       <c r="A7" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>10</v>
+      <c r="C7" s="51" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>12</v>
-      </c>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="51"/>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="43" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="46" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="43" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>17</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="43" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="43" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="72" t="s">
+    <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="62" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="46" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="43" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="43" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="43" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="51" t="s">
         <v>42</v>
       </c>
@@ -2846,12 +4099,12 @@
       </c>
     </row>
     <row r="55" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="72" t="s">
+      <c r="A55" s="62" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="72" t="s">
+      <c r="A56" s="62" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2866,7 +4119,7 @@
       </c>
     </row>
     <row r="59" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="72" t="s">
+      <c r="A59" s="62" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2895,7 +4148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr filterMode="1">
     <tabColor theme="5"/>
@@ -2904,7 +4157,7 @@
   <dimension ref="A1:D1004"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1004" sqref="A44:A1004"/>
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3491,9 +4744,7 @@
       <c r="A85" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="C85" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="C85" s="6"/>
       <c r="D85" s="29"/>
     </row>
     <row r="86" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.35">
@@ -6669,7 +7920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr filterMode="1">
     <tabColor theme="5"/>
@@ -6678,7 +7929,7 @@
   <dimension ref="B1:D1076"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7187,9 +8438,7 @@
       <c r="B85" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="C85" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="C85" s="6"/>
       <c r="D85" s="29"/>
     </row>
     <row r="86" spans="2:4" ht="12.75" hidden="1" x14ac:dyDescent="0.35">
@@ -10311,6 +11560,9 @@
       <c r="B1012" s="53" t="s">
         <v>206</v>
       </c>
+      <c r="C1012" s="50" t="s">
+        <v>207</v>
+      </c>
       <c r="D1012" s="29"/>
     </row>
     <row r="1013" spans="2:4" ht="12.75" x14ac:dyDescent="0.35">
@@ -10368,168 +11620,168 @@
       <c r="D1022" s="29"/>
     </row>
     <row r="1023" spans="2:4" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B1023" s="71"/>
+      <c r="B1023" s="61"/>
       <c r="D1023" s="29"/>
     </row>
     <row r="1024" spans="2:4" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="B1024" s="71"/>
+      <c r="B1024" s="61"/>
       <c r="D1024" s="29"/>
     </row>
     <row r="1025" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1025" s="71"/>
+      <c r="B1025" s="61"/>
     </row>
     <row r="1026" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1026" s="71"/>
+      <c r="B1026" s="61"/>
     </row>
     <row r="1027" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1027" s="71"/>
+      <c r="B1027" s="61"/>
     </row>
     <row r="1028" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1028" s="71"/>
+      <c r="B1028" s="61"/>
     </row>
     <row r="1029" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1029" s="71"/>
+      <c r="B1029" s="61"/>
     </row>
     <row r="1030" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1030" s="71"/>
+      <c r="B1030" s="61"/>
     </row>
     <row r="1031" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1031" s="71"/>
+      <c r="B1031" s="61"/>
     </row>
     <row r="1032" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1032" s="71"/>
+      <c r="B1032" s="61"/>
     </row>
     <row r="1033" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1033" s="71"/>
+      <c r="B1033" s="61"/>
     </row>
     <row r="1034" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1034" s="71"/>
+      <c r="B1034" s="61"/>
     </row>
     <row r="1035" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1035" s="71"/>
+      <c r="B1035" s="61"/>
     </row>
     <row r="1036" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1036" s="71"/>
+      <c r="B1036" s="61"/>
     </row>
     <row r="1037" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1037" s="71"/>
+      <c r="B1037" s="61"/>
     </row>
     <row r="1038" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1038" s="71"/>
+      <c r="B1038" s="61"/>
     </row>
     <row r="1039" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1039" s="71"/>
+      <c r="B1039" s="61"/>
     </row>
     <row r="1040" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1040" s="71"/>
+      <c r="B1040" s="61"/>
     </row>
     <row r="1041" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1041" s="71"/>
+      <c r="B1041" s="61"/>
     </row>
     <row r="1042" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1042" s="71"/>
+      <c r="B1042" s="61"/>
     </row>
     <row r="1043" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1043" s="73"/>
+      <c r="B1043" s="63"/>
     </row>
     <row r="1044" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1044" s="71"/>
+      <c r="B1044" s="61"/>
     </row>
     <row r="1045" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1045" s="71"/>
+      <c r="B1045" s="61"/>
     </row>
     <row r="1046" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1046" s="71"/>
+      <c r="B1046" s="61"/>
     </row>
     <row r="1047" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1047" s="71"/>
+      <c r="B1047" s="61"/>
     </row>
     <row r="1048" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1048" s="71"/>
+      <c r="B1048" s="61"/>
     </row>
     <row r="1049" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1049" s="71"/>
+      <c r="B1049" s="61"/>
     </row>
     <row r="1050" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1050" s="71"/>
+      <c r="B1050" s="61"/>
     </row>
     <row r="1051" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1051" s="71"/>
+      <c r="B1051" s="61"/>
     </row>
     <row r="1052" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1052" s="71"/>
+      <c r="B1052" s="61"/>
     </row>
     <row r="1053" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1053" s="71"/>
+      <c r="B1053" s="61"/>
     </row>
     <row r="1054" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1054" s="71"/>
+      <c r="B1054" s="61"/>
     </row>
     <row r="1055" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1055" s="71"/>
+      <c r="B1055" s="61"/>
     </row>
     <row r="1056" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1056" s="71"/>
+      <c r="B1056" s="61"/>
     </row>
     <row r="1057" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1057" s="71"/>
+      <c r="B1057" s="61"/>
     </row>
     <row r="1058" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1058" s="71"/>
+      <c r="B1058" s="61"/>
     </row>
     <row r="1059" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1059" s="71"/>
+      <c r="B1059" s="61"/>
     </row>
     <row r="1060" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1060" s="73"/>
+      <c r="B1060" s="63"/>
     </row>
     <row r="1061" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1061" s="71"/>
+      <c r="B1061" s="61"/>
     </row>
     <row r="1062" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1062" s="71"/>
+      <c r="B1062" s="61"/>
     </row>
     <row r="1063" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1063" s="71"/>
+      <c r="B1063" s="61"/>
     </row>
     <row r="1064" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1064" s="71"/>
+      <c r="B1064" s="61"/>
     </row>
     <row r="1065" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1065" s="71"/>
+      <c r="B1065" s="61"/>
     </row>
     <row r="1066" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1066" s="71"/>
+      <c r="B1066" s="61"/>
     </row>
     <row r="1067" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1067" s="71"/>
+      <c r="B1067" s="61"/>
     </row>
     <row r="1068" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1068" s="71"/>
+      <c r="B1068" s="61"/>
     </row>
     <row r="1069" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1069" s="71"/>
+      <c r="B1069" s="61"/>
     </row>
     <row r="1070" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1070" s="73"/>
+      <c r="B1070" s="63"/>
     </row>
     <row r="1071" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1071" s="73"/>
+      <c r="B1071" s="63"/>
     </row>
     <row r="1072" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1072" s="73"/>
+      <c r="B1072" s="63"/>
     </row>
     <row r="1073" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1073" s="71"/>
+      <c r="B1073" s="61"/>
     </row>
     <row r="1074" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1074" s="71"/>
+      <c r="B1074" s="61"/>
     </row>
     <row r="1075" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1075" s="73"/>
+      <c r="B1075" s="63"/>
     </row>
     <row r="1076" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1076" s="71"/>
+      <c r="B1076" s="61"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:B1019" xr:uid="{00000000-0009-0000-0000-000004000000}">
@@ -10571,7 +11823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E28D1CC-26B0-4E5E-B2DA-BD2D6EBE1225}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -10579,7 +11831,7 @@
   <dimension ref="A1:A55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -10588,284 +11840,284 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="61" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="61" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="61" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="61" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="61" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="61" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="61" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="61" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="61" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="61" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="61" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="61" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="61" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="61" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="61" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="61" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="61" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="61" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="61" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="61" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="61" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="61" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="71" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="71" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" s="71" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" s="71" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" s="71" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" s="71" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" s="71" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" s="71" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="71" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="71" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="71" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="61" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="61" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="61" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="71" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="73" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="71" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="61" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="61" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="61" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="61" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" s="61" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="71" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="71" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="61" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="71" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="71" t="s">
+    <row r="43" spans="1:1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="61" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="61" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" s="61" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" s="61" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="61" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" s="63" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="71" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="71" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="71" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" s="71" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" s="71" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" s="71" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="71" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="71" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="71" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="71" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" s="71" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" s="73" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" s="71" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" s="71" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" s="71" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" s="71" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="71" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="71" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" s="71" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" s="63" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" s="63" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" s="71" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" s="71" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" s="73" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" s="73" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" s="61" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" s="61" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="63" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" s="61" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" s="73" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" s="71" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" s="71" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="73" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" s="71" t="s">
-        <v>236</v>
-      </c>
-    </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" s="71"/>
+      <c r="A55" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -12996,7 +14248,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="38.25" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A151" s="6" t="s">
         <v>137</v>
       </c>
@@ -13024,7 +14276,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="38.25" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A153" s="20" t="s">
         <v>75</v>
       </c>
@@ -13141,7 +14393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
